--- a/biology/Histoire de la zoologie et de la botanique/Jacob_Christian_Schäffer/Jacob_Christian_Schäffer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacob_Christian_Schäffer/Jacob_Christian_Schäffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacob_Christian_Sch%C3%A4ffer</t>
+          <t>Jacob_Christian_Schäffer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob (ou Jakob) Christian Schäffer (ou Schäffern) est un enseignant, botaniste, mycologue, entomologiste, ornithologue et inventeur allemand, né le 30 mai 1718 à Querfurt et mort le 5 janvier 1790 à Ratisbonne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacob_Christian_Sch%C3%A4ffer</t>
+          <t>Jacob_Christian_Schäffer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1736 à 1738, il effectue des études de théologie à l’université de Halle avant de venir enseigner à Ratisbonne. En 1760, l’université de Wittenberg lui donne un titre de docteur en philosophie et 1763 l’université de Tübingen un titre de docteur en théologie. En 1779, il devient surintendant de la municipalité protestante et pasteur à Ratisbonne.
 Il fait paraître en 1759, Erleichterte Artzney-Kräuterwissenschaft, un manuel de botanique et des effets des plantes à destinations des médecins et des pharmaciens. De 1762 à 1764, il fait paraître les quatre volumes richement illustrés de son œuvre mycologique, Natürlich ausgemahlten Abbildungen baierischer und pfälzischer Schwämme, welche um Regensburg wachsen. En 1774, il fait paraître Elementa Ornithologica où il propose un système de classification des oiseaux basé sur la structure de leurs pattes, l'ouvrage est suivi par Museum Ornithologicum en 1789 où il décrit les oiseaux de sa collection. En 1779, il fait paraître les trois volumes des Icones insectorum circa ratisbonam indigenorum coloribus naturam referentibus expressae, comprenant 280 planches gravées sur cuivre et coloriées à la main, illustrant environ 3 000 insectes. En 1789, il fait paraître une introduction à l’entomologie sous le titre de Elementa entomologica.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacob_Christian_Sch%C3%A4ffer</t>
+          <t>Jacob_Christian_Schäffer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
